--- a/JSON/250617_Fotoclubs_Brabant_Oost.xlsx
+++ b/JSON/250617_Fotoclubs_Brabant_Oost.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Photo Club Hub/JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5ACD04-841C-2944-8837-749A70970C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000B0E1B-3AB5-CD4B-8AE3-362ED75F8ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25680" yWindow="660" windowWidth="25360" windowHeight="26260" xr2:uid="{9FE4029D-0EDD-9D45-9625-9F901A7640D3}"/>
+    <workbookView xWindow="18260" yWindow="500" windowWidth="25360" windowHeight="26260" xr2:uid="{9FE4029D-0EDD-9D45-9625-9F901A7640D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Fotobond&amp;NietFotobond" sheetId="1" r:id="rId1"/>
     <sheet name="Fotobond Brabant-Oost 24" sheetId="2" r:id="rId2"/>
     <sheet name="Fotobond Brabant-Oost Jun25" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="272">
   <si>
     <t>Fotoclub</t>
   </si>
@@ -1126,7 +1126,43 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D8B52F3-C586-3040-894D-6E64EBE279E8}" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0">
-  <autoFilter ref="A1:G71" xr:uid="{7D8B52F3-C586-3040-894D-6E64EBE279E8}"/>
+  <autoFilter ref="A1:G71" xr:uid="{7D8B52F3-C586-3040-894D-6E64EBE279E8}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1601"/>
+        <filter val="1607"/>
+        <filter val="1608"/>
+        <filter val="1611"/>
+        <filter val="1615"/>
+        <filter val="1616"/>
+        <filter val="1618"/>
+        <filter val="1619"/>
+        <filter val="1620"/>
+        <filter val="1623"/>
+        <filter val="1626"/>
+        <filter val="1627"/>
+        <filter val="1631"/>
+        <filter val="1632"/>
+        <filter val="1634"/>
+        <filter val="1636"/>
+        <filter val="1637"/>
+        <filter val="1641"/>
+        <filter val="1643"/>
+        <filter val="1659"/>
+        <filter val="1661"/>
+        <filter val="1665"/>
+        <filter val="1668"/>
+        <filter val="1671"/>
+        <filter val="1674"/>
+        <filter val="1676"/>
+        <filter val="1678"/>
+        <filter val="1679"/>
+        <filter val="1682"/>
+        <filter val="1683"/>
+        <filter val="1684"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G71">
     <sortCondition ref="F1:F71"/>
   </sortState>
@@ -1460,8 +1496,8 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,7 +1721,10 @@
         <v>91</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12">
         <v>1626</v>
       </c>
     </row>
@@ -1761,7 +1800,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1818,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -1797,7 +1836,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1854,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>0</v>
       </c>
@@ -1833,7 +1872,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1890,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -1869,7 +1908,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1926,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1943,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>0</v>
       </c>
@@ -1922,7 +1961,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1979,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1958,7 +1997,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>118</v>
       </c>
@@ -1976,7 +2015,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +2033,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
@@ -2008,11 +2047,14 @@
         <v>85</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30">
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30">
         <v>1682</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2072,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -2048,7 +2090,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2111,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2132,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>25</v>
       </c>
@@ -2111,7 +2153,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2172,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
@@ -2148,7 +2190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>134</v>
       </c>
@@ -2168,7 +2210,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>0</v>
       </c>
@@ -2186,7 +2228,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>25</v>
       </c>
@@ -2206,7 +2248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
@@ -2222,7 +2264,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2300,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>0</v>
       </c>
@@ -2276,7 +2318,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>134</v>
       </c>
@@ -2296,7 +2338,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>25</v>
       </c>
@@ -2312,7 +2354,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
@@ -2332,7 +2374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2392,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
@@ -2368,7 +2410,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
@@ -2386,7 +2428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>25</v>
       </c>
@@ -2406,7 +2448,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>0</v>
       </c>
@@ -2424,7 +2466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2486,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>0</v>
       </c>
@@ -2464,7 +2506,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2526,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>25</v>
       </c>
@@ -2504,7 +2546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2564,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2582,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
@@ -2560,7 +2602,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2622,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>25</v>
       </c>
@@ -2600,7 +2642,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>0</v>
       </c>
@@ -2640,7 +2682,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2698,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>112</v>
       </c>
@@ -2674,7 +2716,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2736,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>25</v>
       </c>
@@ -2710,7 +2752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>140</v>
       </c>
@@ -2730,7 +2772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>269</v>
       </c>
@@ -2748,7 +2790,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>0</v>
       </c>
@@ -2766,7 +2808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>0</v>
       </c>

--- a/JSON/250617_Fotoclubs_Brabant_Oost.xlsx
+++ b/JSON/250617_Fotoclubs_Brabant_Oost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Developer/XCode13Projects/SwiftUI/Photo Club Hub/JSON/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000B0E1B-3AB5-CD4B-8AE3-362ED75F8ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910EF214-6C48-DB4B-8E0E-CB410CBF3821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18260" yWindow="500" windowWidth="25360" windowHeight="26260" xr2:uid="{9FE4029D-0EDD-9D45-9625-9F901A7640D3}"/>
   </bookViews>
@@ -1126,45 +1126,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D8B52F3-C586-3040-894D-6E64EBE279E8}" name="Table1" displayName="Table1" ref="A1:G71" totalsRowShown="0">
-  <autoFilter ref="A1:G71" xr:uid="{7D8B52F3-C586-3040-894D-6E64EBE279E8}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="1601"/>
-        <filter val="1607"/>
-        <filter val="1608"/>
-        <filter val="1611"/>
-        <filter val="1615"/>
-        <filter val="1616"/>
-        <filter val="1618"/>
-        <filter val="1619"/>
-        <filter val="1620"/>
-        <filter val="1623"/>
-        <filter val="1626"/>
-        <filter val="1627"/>
-        <filter val="1631"/>
-        <filter val="1632"/>
-        <filter val="1634"/>
-        <filter val="1636"/>
-        <filter val="1637"/>
-        <filter val="1641"/>
-        <filter val="1643"/>
-        <filter val="1659"/>
-        <filter val="1661"/>
-        <filter val="1665"/>
-        <filter val="1668"/>
-        <filter val="1671"/>
-        <filter val="1674"/>
-        <filter val="1676"/>
-        <filter val="1678"/>
-        <filter val="1679"/>
-        <filter val="1682"/>
-        <filter val="1683"/>
-        <filter val="1684"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G71" xr:uid="{7D8B52F3-C586-3040-894D-6E64EBE279E8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G71">
-    <sortCondition ref="F1:F71"/>
+    <sortCondition ref="D1:D71"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{C05942D3-DB2B-B143-ABE6-168183C41A35}" name="Aanhef"/>
@@ -1496,8 +1460,8 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,106 +1498,113 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2">
-        <v>1601</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>77</v>
+      </c>
       <c r="F3">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4">
-        <v>1608</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5">
-        <v>1611</v>
+        <v>80</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6">
-        <v>1615</v>
+        <v>80</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7">
-        <v>1616</v>
+        <v>80</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1641,34 +1612,35 @@
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8">
-        <v>1618</v>
+      <c r="F8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9">
-        <v>1619</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1676,74 +1648,75 @@
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10">
-        <v>1620</v>
+      <c r="F10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11">
-        <v>1623</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" t="s">
         <v>81</v>
       </c>
       <c r="G12">
-        <v>1626</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13">
-        <v>1627</v>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13">
+        <v>1682</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1751,17 +1724,17 @@
         <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14">
-        <v>1631</v>
+      <c r="F14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1769,35 +1742,35 @@
         <v>0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15">
-        <v>1632</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16">
-        <v>1634</v>
+      <c r="F16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1805,107 +1778,107 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17">
-        <v>1636</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18">
-        <v>1637</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19">
-        <v>1641</v>
+      <c r="F19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20">
-        <v>1643</v>
+      <c r="F20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21">
-        <v>1659</v>
+      <c r="E21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22">
-        <v>1661</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1913,17 +1886,17 @@
         <v>0</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23">
-        <v>1665</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1931,16 +1904,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24">
-        <v>1668</v>
+        <v>91</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1948,17 +1924,17 @@
         <v>0</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25">
-        <v>1671</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1966,53 +1942,56 @@
         <v>0</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26">
-        <v>1674</v>
+      <c r="F26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27">
-        <v>1676</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>195</v>
+        <v>49</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28">
-        <v>1678</v>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28">
+        <v>1672</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2020,38 +1999,38 @@
         <v>0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29">
-        <v>1679</v>
+      <c r="F29" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" t="s">
         <v>81</v>
       </c>
       <c r="G30">
-        <v>1682</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2059,17 +2038,17 @@
         <v>0</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>198</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31">
-        <v>1683</v>
+        <v>142</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2077,111 +2056,108 @@
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C34" s="6"/>
       <c r="D34" s="5" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" t="s">
         <v>81</v>
       </c>
       <c r="G34">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" t="s">
         <v>81</v>
       </c>
-      <c r="G35">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="6"/>
+        <v>189</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="D36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F36" t="s">
         <v>81</v>
       </c>
-      <c r="G36">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D37" s="5" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>127</v>
@@ -2190,18 +2166,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>127</v>
@@ -2210,162 +2186,173 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>127</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E40" s="5"/>
       <c r="F40" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D41" s="5" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F42" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F43" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>212</v>
+        <v>60</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="D46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="5"/>
+        <v>192</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="F46" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>127</v>
@@ -2374,441 +2361,418 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="5"/>
+        <v>187</v>
+      </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
       <c r="F48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="C50" s="6"/>
       <c r="D50" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="F52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E57" s="5"/>
       <c r="F57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="F58">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>67</v>
+        <v>270</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>127</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E60" s="5"/>
       <c r="F60" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>193</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C61" s="6"/>
       <c r="D61" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E63" t="s">
-        <v>127</v>
-      </c>
       <c r="F63" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="D64" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="F64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E65" s="5"/>
-      <c r="F65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="D67" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="F67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>271</v>
+        <v>123</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E69" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="E69"/>
       <c r="F69" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>0</v>
       </c>
@@ -2826,67 +2790,68 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E73" s="3" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D73"/>
+      <c r="F73" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F73" s="4">
+      <c r="G73" s="4">
         <f>COUNTA(B2:B211)</f>
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" display="mailto:info@fotokringbeeldhoek.nl" xr:uid="{01CF568C-A55D-A04E-8D6F-7100DD9BD793}"/>
-    <hyperlink ref="C4" r:id="rId2" display="mailto:voorzitter@fcobjectief.nl" xr:uid="{92D616AB-22C5-C445-8EFB-8791FD1161D9}"/>
-    <hyperlink ref="C11" r:id="rId3" display="mailto:infoshot71@gmail.com" xr:uid="{D172D646-4B28-C44E-B0EB-229C66458EBA}"/>
-    <hyperlink ref="C38" r:id="rId4" display="mailto:info@foto-art.nl" xr:uid="{8A252622-8562-DD41-9660-078AD7EDD35B}"/>
-    <hyperlink ref="C32" r:id="rId5" display="mailto:liahurkens@gmail.com" xr:uid="{0602482A-FA1E-8C4D-83E1-70A73C54851F}"/>
-    <hyperlink ref="C5" r:id="rId6" display="mailto:info@fotoclubdenbosch.nl" xr:uid="{D2125CC3-3B58-8B4B-B4A2-AB7712240DDB}"/>
-    <hyperlink ref="C35" r:id="rId7" display="mailto:ericverkaar@argusfoto.nl" xr:uid="{F3E62507-D4F8-FD47-B625-CC2F9C3C96C2}"/>
-    <hyperlink ref="C30" r:id="rId8" display="mailto:hsylva@ziggo.nl" xr:uid="{F0F16568-1FBD-A243-9FC5-0D42F889317A}"/>
-    <hyperlink ref="C42" r:id="rId9" display="mailto:fotoclubdendungen@gmail.com" xr:uid="{4762C022-2213-9C4D-A0B3-8B62993A4FA0}"/>
-    <hyperlink ref="C17" r:id="rId10" display="mailto:info@optika.nl" xr:uid="{F4ECDAE1-ACED-254C-9221-B4001742B146}"/>
-    <hyperlink ref="C7" r:id="rId11" display="mailto:secretaris@kemfodia.nl" xr:uid="{A01F2DDD-289F-3F4B-B777-22D2F6C5860B}"/>
-    <hyperlink ref="C29" r:id="rId12" display="mailto:pr@fotoclublucifer.nl" xr:uid="{94AA5225-BFED-4F4C-8939-D95055F2EA62}"/>
-    <hyperlink ref="C10" r:id="rId13" display="mailto:info@fcdegender.nl" xr:uid="{52005FA2-CF12-D14B-9B28-3C227543DBBA}"/>
-    <hyperlink ref="C21" r:id="rId14" display="mailto:fcdebuut@gmail.com" xr:uid="{8643E96B-96CE-4149-92F5-6733694AE821}"/>
-    <hyperlink ref="C47" r:id="rId15" display="mailto:info@dekatemousa.nl" xr:uid="{2AFA60C2-6A38-A142-957F-D44F29FD8BE7}"/>
-    <hyperlink ref="C26" r:id="rId16" display="mailto:secretaris@ericamera.nl" xr:uid="{A2DA7CC8-4D88-8D46-B4DE-452EEC6CE102}"/>
-    <hyperlink ref="C20" r:id="rId17" display="mailto:secretaris@fotoclubkarregat.nl" xr:uid="{3C911042-FCAE-6840-9569-2D491F4E8C7E}"/>
-    <hyperlink ref="C33" r:id="rId18" display="mailto:fotogroepklick@live.nl" xr:uid="{D5694CC5-55C4-FE4A-AA2F-3C04AA1190F8}"/>
-    <hyperlink ref="C49" r:id="rId19" display="mailto:fotoclublievendaal@gmail.com" xr:uid="{DB48DD7C-A029-A746-BA32-AE959E848331}"/>
-    <hyperlink ref="C12" r:id="rId20" display="mailto:bestuur@fotoclubrapenland.nl" xr:uid="{37065EC6-153A-4646-9CE2-FF6A381C9B5F}"/>
-    <hyperlink ref="C15" r:id="rId21" display="mailto:info@fotoclubgemert.nl" xr:uid="{20C8D53E-9968-8647-A7FF-DAA59FA74BC1}"/>
-    <hyperlink ref="C54" r:id="rId22" display="mailto:secretaris@fotoclubhelmond.nl" xr:uid="{1B5DBFA2-F7F5-394E-B253-1F8BA2248E37}"/>
-    <hyperlink ref="C55" r:id="rId23" display="mailto:fotografieclubhelmondoost@gmail.com" xr:uid="{56257247-0646-8248-B4FE-2F4612682DC5}"/>
-    <hyperlink ref="C56" r:id="rId24" display="mailto:fotogroepraak@gmail.com" xr:uid="{00519787-4087-7343-9E19-0BA6F491464B}"/>
-    <hyperlink ref="C57" r:id="rId25" display="mailto:c.haisma@onsnet.nu" xr:uid="{F780C582-4CD0-5B40-84FA-5108FD15678B}"/>
-    <hyperlink ref="C58" r:id="rId26" display="mailto:lousvanromondt@onsnet.nu" xr:uid="{CAC74531-5746-3A4B-9F0B-3201BAC5AE10}"/>
-    <hyperlink ref="C60" r:id="rId27" display="mailto:secretariaat@pvge-nuenen.nl" xr:uid="{CDDE3808-7D39-E242-9D3A-697280B58D69}"/>
-    <hyperlink ref="C34" r:id="rId28" display="mailto:fcn.bestuur@gmail.com" xr:uid="{ED91BEB6-3274-3A4A-A3B0-13FC73641C01}"/>
-    <hyperlink ref="C3" r:id="rId29" display="mailto:info@fotogroepoirschot.nl" xr:uid="{3174BFE3-2CBD-CD4D-ACBF-594E24164DF9}"/>
-    <hyperlink ref="C62" r:id="rId30" display="mailto:secretaris@focoss.nl" xr:uid="{94087D97-ACC7-3243-8603-8491594C95FD}"/>
-    <hyperlink ref="C27" r:id="rId31" display="mailto:yhm.janssen@ziggo.nl" xr:uid="{77E862A6-018A-E94D-AA69-D6AE8DB7DF04}"/>
-    <hyperlink ref="C66" r:id="rId32" display="mailto:info@fotoclubmaashorst.nl" xr:uid="{166D186D-E073-AA4C-9564-73BC6069F75C}"/>
-    <hyperlink ref="C25" r:id="rId33" display="mailto:fotoclubbellusimago@gmail.com" xr:uid="{770765BF-3626-684E-BEB4-12268736EF3F}"/>
-    <hyperlink ref="C68" r:id="rId34" display="mailto:Bert.Koppers@gmail.com" xr:uid="{064EAC0F-148C-924F-A4C6-19BDF3492783}"/>
-    <hyperlink ref="C8" r:id="rId35" display="mailto:fotoclubkiekus@gmail.com" xr:uid="{05A1CF22-F332-7D41-8E12-6B5BBEBE901F}"/>
-    <hyperlink ref="C23" r:id="rId36" display="mailto:fcbommelerwaard@gmail.com" xr:uid="{19F93FB1-D281-C841-843F-9D62040D855B}"/>
-    <hyperlink ref="C53" r:id="rId37" xr:uid="{0807916D-C4ED-7F43-AD15-6E092E3789F4}"/>
-    <hyperlink ref="C61" r:id="rId38" display="mailto:hvdoever@upcmail.nl" xr:uid="{7DE40A2E-E356-EE41-BB36-898E99BA9672}"/>
-    <hyperlink ref="C44" r:id="rId39" xr:uid="{D4DAA754-9326-2F40-8A70-15506AFC8CB2}"/>
-    <hyperlink ref="C28" r:id="rId40" xr:uid="{EF123F89-CE23-4944-AD0D-1B1503C12281}"/>
-    <hyperlink ref="C51" r:id="rId41" xr:uid="{DB86F9EF-58DA-9142-806A-90430C0EAB83}"/>
-    <hyperlink ref="C24" r:id="rId42" xr:uid="{B2043241-DF39-CB42-A168-F8C031C0552B}"/>
-    <hyperlink ref="C31" r:id="rId43" xr:uid="{35434C52-537C-924A-9F77-EF28DEDAB9F9}"/>
-    <hyperlink ref="C2" r:id="rId44" xr:uid="{ACE8576E-0E81-B342-A443-56D9414E6DEE}"/>
-    <hyperlink ref="C18" r:id="rId45" xr:uid="{457FB2E4-59D4-9E4B-A8A3-50A3DE5F036F}"/>
-    <hyperlink ref="C22" r:id="rId46" xr:uid="{B8D304A1-F253-5746-AD1A-186A68AF25B6}"/>
-    <hyperlink ref="C16" r:id="rId47" xr:uid="{7BBD6207-22AD-7245-BCBC-EDBB101805F4}"/>
-    <hyperlink ref="C52" r:id="rId48" display="mailto:info@fcbernheze.nl" xr:uid="{A2F2D8D0-64DE-5040-81E7-E73CA561CF52}"/>
-    <hyperlink ref="C14" r:id="rId49" xr:uid="{72031FD7-7414-934D-8CB1-7CE21086B5C7}"/>
-    <hyperlink ref="C45" r:id="rId50" display="mailto:a.augustinus@gmail.com" xr:uid="{3CF13E02-ED42-4547-9CF4-26AB195D1355}"/>
+    <hyperlink ref="C2" r:id="rId1" display="mailto:info@fotokringbeeldhoek.nl" xr:uid="{01CF568C-A55D-A04E-8D6F-7100DD9BD793}"/>
+    <hyperlink ref="C3" r:id="rId2" display="mailto:voorzitter@fcobjectief.nl" xr:uid="{92D616AB-22C5-C445-8EFB-8791FD1161D9}"/>
+    <hyperlink ref="C4" r:id="rId3" display="mailto:infoshot71@gmail.com" xr:uid="{D172D646-4B28-C44E-B0EB-229C66458EBA}"/>
+    <hyperlink ref="C6" r:id="rId4" display="mailto:info@foto-art.nl" xr:uid="{8A252622-8562-DD41-9660-078AD7EDD35B}"/>
+    <hyperlink ref="C9" r:id="rId5" display="mailto:liahurkens@gmail.com" xr:uid="{0602482A-FA1E-8C4D-83E1-70A73C54851F}"/>
+    <hyperlink ref="C11" r:id="rId6" display="mailto:info@fotoclubdenbosch.nl" xr:uid="{D2125CC3-3B58-8B4B-B4A2-AB7712240DDB}"/>
+    <hyperlink ref="C12" r:id="rId7" display="mailto:ericverkaar@argusfoto.nl" xr:uid="{F3E62507-D4F8-FD47-B625-CC2F9C3C96C2}"/>
+    <hyperlink ref="C13" r:id="rId8" display="mailto:hsylva@ziggo.nl" xr:uid="{F0F16568-1FBD-A243-9FC5-0D42F889317A}"/>
+    <hyperlink ref="C14" r:id="rId9" display="mailto:fotoclubdendungen@gmail.com" xr:uid="{4762C022-2213-9C4D-A0B3-8B62993A4FA0}"/>
+    <hyperlink ref="C15" r:id="rId10" display="mailto:info@optika.nl" xr:uid="{F4ECDAE1-ACED-254C-9221-B4001742B146}"/>
+    <hyperlink ref="C17" r:id="rId11" display="mailto:secretaris@kemfodia.nl" xr:uid="{A01F2DDD-289F-3F4B-B777-22D2F6C5860B}"/>
+    <hyperlink ref="C18" r:id="rId12" display="mailto:pr@fotoclublucifer.nl" xr:uid="{94AA5225-BFED-4F4C-8939-D95055F2EA62}"/>
+    <hyperlink ref="C22" r:id="rId13" display="mailto:info@fcdegender.nl" xr:uid="{52005FA2-CF12-D14B-9B28-3C227543DBBA}"/>
+    <hyperlink ref="C23" r:id="rId14" display="mailto:fcdebuut@gmail.com" xr:uid="{8643E96B-96CE-4149-92F5-6733694AE821}"/>
+    <hyperlink ref="C24" r:id="rId15" display="mailto:info@dekatemousa.nl" xr:uid="{2AFA60C2-6A38-A142-957F-D44F29FD8BE7}"/>
+    <hyperlink ref="C25" r:id="rId16" display="mailto:secretaris@ericamera.nl" xr:uid="{A2DA7CC8-4D88-8D46-B4DE-452EEC6CE102}"/>
+    <hyperlink ref="C27" r:id="rId17" display="mailto:secretaris@fotoclubkarregat.nl" xr:uid="{3C911042-FCAE-6840-9569-2D491F4E8C7E}"/>
+    <hyperlink ref="C28" r:id="rId18" display="mailto:fotogroepklick@live.nl" xr:uid="{D5694CC5-55C4-FE4A-AA2F-3C04AA1190F8}"/>
+    <hyperlink ref="C29" r:id="rId19" display="mailto:fotoclublievendaal@gmail.com" xr:uid="{DB48DD7C-A029-A746-BA32-AE959E848331}"/>
+    <hyperlink ref="C30" r:id="rId20" display="mailto:bestuur@fotoclubrapenland.nl" xr:uid="{37065EC6-153A-4646-9CE2-FF6A381C9B5F}"/>
+    <hyperlink ref="C33" r:id="rId21" display="mailto:info@fotoclubgemert.nl" xr:uid="{20C8D53E-9968-8647-A7FF-DAA59FA74BC1}"/>
+    <hyperlink ref="C37" r:id="rId22" display="mailto:secretaris@fotoclubhelmond.nl" xr:uid="{1B5DBFA2-F7F5-394E-B253-1F8BA2248E37}"/>
+    <hyperlink ref="C38" r:id="rId23" display="mailto:fotografieclubhelmondoost@gmail.com" xr:uid="{56257247-0646-8248-B4FE-2F4612682DC5}"/>
+    <hyperlink ref="C39" r:id="rId24" display="mailto:fotogroepraak@gmail.com" xr:uid="{00519787-4087-7343-9E19-0BA6F491464B}"/>
+    <hyperlink ref="C40" r:id="rId25" display="mailto:c.haisma@onsnet.nu" xr:uid="{F780C582-4CD0-5B40-84FA-5108FD15678B}"/>
+    <hyperlink ref="C41" r:id="rId26" display="mailto:lousvanromondt@onsnet.nu" xr:uid="{CAC74531-5746-3A4B-9F0B-3201BAC5AE10}"/>
+    <hyperlink ref="C43" r:id="rId27" display="mailto:secretariaat@pvge-nuenen.nl" xr:uid="{CDDE3808-7D39-E242-9D3A-697280B58D69}"/>
+    <hyperlink ref="C44" r:id="rId28" display="mailto:fcn.bestuur@gmail.com" xr:uid="{ED91BEB6-3274-3A4A-A3B0-13FC73641C01}"/>
+    <hyperlink ref="C45" r:id="rId29" display="mailto:info@fotogroepoirschot.nl" xr:uid="{3174BFE3-2CBD-CD4D-ACBF-594E24164DF9}"/>
+    <hyperlink ref="C47" r:id="rId30" display="mailto:secretaris@focoss.nl" xr:uid="{94087D97-ACC7-3243-8603-8491594C95FD}"/>
+    <hyperlink ref="C53" r:id="rId31" display="mailto:yhm.janssen@ziggo.nl" xr:uid="{77E862A6-018A-E94D-AA69-D6AE8DB7DF04}"/>
+    <hyperlink ref="C57" r:id="rId32" display="mailto:info@fotoclubmaashorst.nl" xr:uid="{166D186D-E073-AA4C-9564-73BC6069F75C}"/>
+    <hyperlink ref="C62" r:id="rId33" display="mailto:fotoclubbellusimago@gmail.com" xr:uid="{770765BF-3626-684E-BEB4-12268736EF3F}"/>
+    <hyperlink ref="C63" r:id="rId34" display="mailto:Bert.Koppers@gmail.com" xr:uid="{064EAC0F-148C-924F-A4C6-19BDF3492783}"/>
+    <hyperlink ref="C68" r:id="rId35" display="mailto:fotoclubkiekus@gmail.com" xr:uid="{05A1CF22-F332-7D41-8E12-6B5BBEBE901F}"/>
+    <hyperlink ref="C70" r:id="rId36" display="mailto:fcbommelerwaard@gmail.com" xr:uid="{19F93FB1-D281-C841-843F-9D62040D855B}"/>
+    <hyperlink ref="C36" r:id="rId37" xr:uid="{0807916D-C4ED-7F43-AD15-6E092E3789F4}"/>
+    <hyperlink ref="C46" r:id="rId38" display="mailto:hvdoever@upcmail.nl" xr:uid="{7DE40A2E-E356-EE41-BB36-898E99BA9672}"/>
+    <hyperlink ref="C19" r:id="rId39" xr:uid="{D4DAA754-9326-2F40-8A70-15506AFC8CB2}"/>
+    <hyperlink ref="C67" r:id="rId40" xr:uid="{EF123F89-CE23-4944-AD0D-1B1503C12281}"/>
+    <hyperlink ref="C32" r:id="rId41" xr:uid="{DB86F9EF-58DA-9142-806A-90430C0EAB83}"/>
+    <hyperlink ref="C55" r:id="rId42" xr:uid="{B2043241-DF39-CB42-A168-F8C031C0552B}"/>
+    <hyperlink ref="C51" r:id="rId43" xr:uid="{35434C52-537C-924A-9F77-EF28DEDAB9F9}"/>
+    <hyperlink ref="C59" r:id="rId44" xr:uid="{ACE8576E-0E81-B342-A443-56D9414E6DEE}"/>
+    <hyperlink ref="C64" r:id="rId45" xr:uid="{457FB2E4-59D4-9E4B-A8A3-50A3DE5F036F}"/>
+    <hyperlink ref="C65" r:id="rId46" xr:uid="{B8D304A1-F253-5746-AD1A-186A68AF25B6}"/>
+    <hyperlink ref="C66" r:id="rId47" xr:uid="{7BBD6207-22AD-7245-BCBC-EDBB101805F4}"/>
+    <hyperlink ref="C35" r:id="rId48" display="mailto:info@fcbernheze.nl" xr:uid="{A2F2D8D0-64DE-5040-81E7-E73CA561CF52}"/>
+    <hyperlink ref="C52" r:id="rId49" xr:uid="{72031FD7-7414-934D-8CB1-7CE21086B5C7}"/>
+    <hyperlink ref="C21" r:id="rId50" display="mailto:a.augustinus@gmail.com" xr:uid="{3CF13E02-ED42-4547-9CF4-26AB195D1355}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
